--- a/medicine/Sexualité et sexologie/X_femmes/X_femmes.xlsx
+++ b/medicine/Sexualité et sexologie/X_femmes/X_femmes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">X femmes est une série télévisée érotique d'anthologie française en dix épisodes de 15 à 30 minutes diffusée les 26 octobre 2008 et 28 juin 2009 sur Canal+.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une collection de courts métrages sexuellement explicites, signés par des réalisatrices reconnues pour leur œil dans le domaine du cinéma, du théâtre ou de l'art[réf. nécessaire].
 </t>
@@ -542,42 +556,13 @@
           <t>Production et diffusion</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Produits par Sofilles Productions, la société éditrice du site Second Sexe, et Montpensier Films avec la participation de Canal+, les films ont été mis en vidéo à la demande sur le site cinéma de Second Sexe le jour de leur unique télédiffusion sur Canal+, sauf Vous désirez ?, produit par les seuls Sofilles Productions, qui est disponible depuis mars 2008.
-Cinq des six films de la première saison (sauf À ses pieds) ont été présentés en section spéciale le 2 septembre 2008 au Circuito Off Venice International Short Film Festival[1]. Les quatre films de la seconde saison y ont été montrés en section spéciale le 3 septembre 2009[2]. Les filles a aussi été présenté en compétition internationale le 5 septembre[3] et a remporté une mention spéciale du jury[4].
+Cinq des six films de la première saison (sauf À ses pieds) ont été présentés en section spéciale le 2 septembre 2008 au Circuito Off Venice International Short Film Festival. Les quatre films de la seconde saison y ont été montrés en section spéciale le 3 septembre 2009. Les filles a aussi été présenté en compétition internationale le 5 septembre et a remporté une mention spéciale du jury.
 </t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>X_femmes</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/X_femmes</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Épisodes</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Première saison (2008)
-Deuxième saison (2009)</t>
         </is>
       </c>
     </row>
